--- a/SnelStartTermsExport0001.xlsx
+++ b/SnelStartTermsExport0001.xlsx
@@ -20,7 +20,7 @@
     <t>guid</t>
   </si>
   <si>
-    <t>term1</t>
+    <t>terms1</t>
   </si>
   <si>
     <t>Tenzij anders is overeengekomen dienen alle
@@ -34,7 +34,7 @@
     <t>GNC_TERM_TYPE_DAYS</t>
   </si>
   <si>
-    <t>term2</t>
+    <t>terms2</t>
   </si>
   <si>
     <t>Reclames dient u binnen een week na dagtekening
@@ -52,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -73,11 +73,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +117,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,10 +128,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -159,7 +150,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -215,7 +206,7 @@
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="0" t="n">
